--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/8_Antalya_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/8_Antalya_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EAC1B2B-0951-4601-B0C6-7DE141CF8D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C4AD2F5-85BB-4D2E-B17B-1F5CA6D3022A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" xr2:uid="{31314834-AFDA-4EC2-88D1-8E34638DBB93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" xr2:uid="{14C30994-64EE-4AFB-8DE2-7EB562A2185D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -965,15 +965,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{DBD1F6FD-1FD9-4F9E-B1C0-0B7A70E2D728}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{576DFA5C-80F0-499A-84B1-B7CA415DC9E2}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{0926A379-2BE4-4629-A7CB-FE0C4027C0E2}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{637187C1-0B72-48B5-A585-F20CC18EF53C}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{ED0A2909-F6C4-4C2C-B494-7F687C623F14}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{2C4C252E-F06F-43EA-9667-E733B2D2F8C8}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{0F014CCF-365B-49F2-9270-0C3585993A97}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{F9E68BBE-6DFE-4705-A8D5-78864A2347AA}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{C453B1D3-AA3B-4EE6-8439-0632090B1413}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{997E0A92-93C2-44CB-9AC2-ACAE253E6F78}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{127D9F5F-B955-4012-8EB2-AB1993A95962}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{08901CA5-DA78-481F-8903-BE69D885CD4F}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{76066499-D024-44B8-B9FE-E447CBB8F533}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{6278F8D7-6938-4BD8-8C42-70A706797F16}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{0AF0A9C1-7C03-4426-AC5B-BF8922F9A341}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{3291E053-E0B3-452F-AE2E-AA901EEFE599}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{A04DA15F-97D8-4152-8983-62429B3A2595}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{945B8229-CC6E-46CC-94B1-2A317249AE16}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1343,7 +1343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9056AFC9-6D1F-4C09-A2D7-E4E3A84C56AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BC7D92-3151-480D-98E8-D15D4ACF12C6}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2801,18 +2801,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8F85F5B6-391C-4205-83B6-04A310D69A9A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D14528B-97E1-4468-B6A6-209A991B040D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3E8C3157-17FD-4053-8DD1-8EB7A55D8CBF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7E532CD0-02D2-43E8-BC85-8CB1C15914F3}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6D99EE9B-9C76-4CE7-AD03-5F0D5C0682CC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{14F0DBDD-4D8A-4BB4-8F82-4C39B346D14D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A2EAD483-9028-4D35-A632-9C7026AE3457}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{59727BC5-A65F-4D16-B593-0201B91D36DB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB1ECE98-0DEA-4463-B02E-EB6E4D14C2C7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3FA8D1B7-F20F-45F5-864E-B14FC34DD1E8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3236A0B1-CA8A-4F98-B676-906D3E1EB168}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{137101A5-E834-49AF-90DE-CFF078AF7AE5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ABC6A760-FF88-41B4-BA44-910ED7E5D4D2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C969B8A-DA7D-4ECB-84BF-350128B54198}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{19B60CB1-A1EA-4514-B46A-16699F8556BA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BB889068-1673-4DFC-8DBF-EB75A7EA237E}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D62967DD-B9DC-4C04-B9AD-21A8094DC03D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A871952F-D6D1-4218-9E3B-881469201828}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A3C9012B-E0CB-4BA7-9FFF-62B37EE36A84}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5C8FADE3-4B49-40CF-B1A9-F76839154404}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{972A28D3-3AE5-4DE1-9E0B-8D218A69EBB3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D3B19CF0-3ABE-48F8-9F3B-15C087597295}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F1D9BEDC-32CD-4C18-8393-35405C72044C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{870D1734-BEB3-4585-9199-39AFB2DFD59E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2825,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A888FE-0A7B-465E-B434-CCECC4776F77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEC8D83-63AB-4496-9C35-7AB36EE368C8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4146,18 +4146,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0EF2A19D-3EE4-4FA5-8D55-6118E2448310}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E6FFF4C7-AC91-473B-96B8-0698AF56A4B1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5972FAD1-7F9E-4632-A555-158EEBAD9FE7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{96E97BAF-BC07-49E2-A82B-FE72163C0349}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1CE339AE-2A31-4F31-9C03-615EC017AD56}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{34D377D9-E2E8-412D-8F04-2B77959C9A9A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89BE2E88-5E3A-4041-98B7-A601E7BB1F09}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{71E01098-A9AC-4D4C-AF22-6DA2E42683AA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E2DFE37A-1EE6-4EB3-B076-D18CB5F828FA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{172DF222-9562-413A-B8B4-954B5A588D91}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{928DB69B-704C-449A-A29E-0D92C08FA8E9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3D8D7278-71EE-4206-A3E7-D9B905861232}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{18AC7E11-24A7-41B3-9B8E-CBA5E56F93C8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F6B9B06C-3263-48BD-91DF-FCFE50051359}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{48F1547D-BAF6-4C1F-A6CB-1D1C0DADEB32}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8C0E4D1A-30C3-40D0-9130-C0D1CC40D059}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{70711E62-94BB-4961-816B-3B271CF497CC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C52FA283-EE52-49C2-8BBA-95FCE1DBF2B3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C55E04E8-B3D4-41C3-8F8B-0D7B96C5F71A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A9785C69-2096-475C-83DA-21ED69C7F543}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3F412B63-2405-4C94-9660-EE04894CA000}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9671A94D-7682-41DB-B495-5B4797FF4DE3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{523F71B0-1D61-4A41-9DBF-F037E2B48406}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E5659B94-7090-4FC7-846F-98ECBF4B29F0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4170,7 +4170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196C658-C876-441E-857B-2B60E2056A05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D837C67-7BBB-48F2-9BC2-F2ABD2197893}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5493,18 +5493,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5D4FEFE7-DB9C-4552-A826-24844DF0417B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A267E765-B34C-4D95-B98F-DFDE27D29A37}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{44D558D5-F796-4AE7-B6FC-647030E424F1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C573E942-B24F-41FF-B254-BCDFDDA43D35}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D6026AA5-F433-44FB-A3BD-145C0924CC46}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5F4EEA9B-1DD0-4C12-B5D7-8D041E9F2CCF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4ACD0A35-5B7B-4A8C-A06D-A32759D2B530}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7084D15F-DB9D-46EB-B775-0750076DA223}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F445F212-FBE6-4405-96AA-CB60AA7F6349}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{52DCF8EE-AF9F-4D55-8B04-DBB43A0EDE8A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BBE4DE17-6889-4454-B735-9CF15776983F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EC41062A-AAC7-4E3F-83C4-A482845E336F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ACC0B14D-AD04-49AF-BCF3-097EB659CB81}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1128FCA-90B4-4E4B-B470-E22DDF88B0A3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0572AB8D-DA1C-491C-9030-DF03437AC749}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C65BC703-F107-4311-B3B7-D3D4F9920709}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C1F87BF4-4A72-4393-9BEC-ADEACB409EB5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C6197F77-00F3-46FA-8609-C94E2C013FBB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B25F638D-AD07-47FC-8728-5241B1B57BD4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6752528B-1396-43F4-B743-E80E1C37E576}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EEC1E2A9-0F0B-4C2D-BD45-D709417D8A24}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CF634088-2D96-40B8-A433-ACA45360269C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E654DDB-0BCF-4419-98DD-DAD11F12EC0A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8AE87563-9BE0-4FB9-8BC1-3F4EBE05042B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5517,7 +5517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49EABD8-B70A-4AE6-B424-C986BEFDEE78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79ACF608-3911-494B-8000-A8465AB9B551}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6823,18 +6823,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6A05388F-5485-4640-9BD8-FD1C721A51AB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BEDAA771-C1CB-4386-BC03-06A8320F80A5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5CFABC67-441D-452B-A376-6EF4D8540C20}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6A75F9D4-C588-42FF-B2E7-4687F7AC5B39}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{948848C3-CDFD-4CF9-9986-589FF61BD499}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4442CA54-1FBA-489A-8B15-328DF2D26E17}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5621847-6168-4CDD-BA27-F561A0E4D9B4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{20B09204-92C5-4DA5-878B-C86E18F96228}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{80FFFC0D-A0DB-4DB1-B2DB-230F22CBC65B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A6FF5A6C-282D-49B6-89A0-E844211959C8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{38CC9249-44EE-4D0A-8FD1-5E5174D714ED}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4241B055-5EB9-44A5-B9D0-35433DA50165}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CAD191A5-7190-4038-93D7-54571373C3E9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ABBBC374-44F4-42EF-B290-E770887C80DD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5D2BCE21-0D80-4842-8C7C-B6AD5D76247A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{909DCD2E-5E41-43BA-BB4E-AEAA12B56B0D}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{18D42B4A-4494-450D-BAE2-C44150DC89CE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{335AAD21-ADC2-4196-9B8F-0E44291A3A47}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{94BA2214-F42E-4F48-AE37-B5F390C7893F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{20CDEF35-2FAD-4386-A834-FB6946164CB8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{83218BA5-3888-4348-927D-274CC0A7B9B3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{367F504E-9EDC-4CBC-8440-9003C14192DD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85592EC6-C00B-419A-8D51-AC4A540FA4E6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0FF7F197-03AC-4379-AA5F-B4694CEF6F43}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6847,7 +6847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BC5A21-C3F1-4E51-915B-F93635F0664C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6EDB31-E94C-4DCA-9F35-433A2A7ED182}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A70" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8184,18 +8184,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C05A7A9-360E-44A9-9D1D-3A8137BD626B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1EEF0674-DBA9-4918-BC46-B981843E977B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5188F4DF-37E4-489E-B197-368C4A68B8B6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F812145B-F1C8-4363-8566-DC4D593709AB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{629FF16F-188E-4D51-AE60-A9B2738B23A5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6295348E-13C4-40DE-8654-0040DA15BD27}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C19369A-2E9D-423B-B980-3542B9A293A2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7B119955-C396-42CF-83A2-0F23A5F8ED24}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{65D9AAF8-471A-467A-A2BC-5B66F89FE3FD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56DBF9E6-2FD4-458D-95DA-4DF9AD805A1E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C528EC79-BAC4-45D0-9CFD-8154984739BA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9F35956E-14F5-4160-9F96-29C23E28BCBB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{54507501-8140-4814-8CF6-B26811A3F66B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7D4190F2-81EC-4318-98F4-08F54B62E946}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4C6541FD-B113-487A-ABED-742B67D495DD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7CBC2928-0C63-4DE3-9F33-D00A2AC5F917}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{89D5F645-3701-450F-80DB-B7F1F3C8CF5F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F3584E10-834B-40BA-9392-2BB450578931}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97EC2EF0-A41D-4CAA-B206-A909B73C6F20}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9F99B766-5CBC-46C0-AF84-0C76CD132476}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A80CC00B-ABF5-41EA-BDDF-08492B6D4C45}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{66F7A466-DE32-46ED-9FF6-E1618F05CD99}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6342540A-49F9-4028-B91A-F75DF78D7996}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC66B0C6-E68E-4372-8B3E-85FEA754B7D5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8208,7 +8208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B29D0EE-A01C-4BA7-8BC9-115025B83797}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BB7BE4-833B-4B23-8F4C-E852FD53C4A6}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9545,18 +9545,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3116D0F3-D7BD-4DCA-8EAF-C773E2493805}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D60047B-8DEA-4E74-9BAB-E45187D2D782}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3A34FC69-797C-40E5-98AA-49172C85E394}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6BA69849-6E77-4B9B-84DA-3A62E4014746}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{91A6F5BA-A62D-459E-B8D6-2C6C9616DE1E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{01DDB5B8-37D4-4E57-A498-49FD855C92E6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{553F38BC-5FFA-4B93-A44D-132258A27832}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F526FBCD-59FF-4F86-BAF5-15C7414F476E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91B53383-E120-48C0-875D-7B44BDE4E6F1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE8640CD-798F-4B29-B6B1-0148562EDA3A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{43860A9F-2B56-4D5F-AAA3-78F3379E19BA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{801401D7-59B2-41A6-9AA6-47588CD70819}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72CE8A6A-D578-4281-B965-0F84D2A56102}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3958DFF-2160-48CC-BA9B-BECCBED64787}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{04A0CC6D-BE00-4A66-9365-95EB27AED2F1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C44F77AC-681E-476C-A8FE-04E029A84466}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0A357144-2622-4C35-B98B-21D54302D9A5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{577FB082-3F7D-4777-8DAA-EBFFFC70242C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3D7A46D2-EC38-4010-9A86-8DBD8E818DAD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{52C854DC-1EA6-40CD-8E7E-2B0782E5A7BF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1BA9BB7E-5048-4FFB-AE4E-5DF48CA9A720}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EC109BC7-69AB-493B-995E-DDF36B79D817}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E21146B5-BC3E-4884-B8A9-0CAA25DF7A98}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{027FD32C-E4CA-46BD-8223-59B9C7E0A103}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9569,7 +9569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C0E31B-CE80-4E09-8ADE-5D006066EEFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04D1838-DC19-449E-8BA9-D5BCEFFB4F13}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10902,18 +10902,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6DA1289-C27F-49BC-ABB1-05E887FA2692}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{104EADFD-E69B-4BC4-AA74-B08401998F91}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1D5BA019-22E7-4EBB-81E2-D4ABD12E9E2A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D5CC51F2-59F0-4D02-A073-56274D99D082}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C3E447D9-BAA9-4971-AFFD-6FF41E8DED60}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4E0EAEDC-01C8-412F-BC93-B801CB0DB6C7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6250E293-8E37-4D93-84B6-512A48FD6D3D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{61CD614E-1457-4CFA-B1B6-5609A9A2D14C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E838B6E3-8CE9-4CAC-90D4-80B60A07C90C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C2C0CEB8-1FE3-4450-B893-4CE9E632A9DD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE8F7024-F12C-4550-962C-FBA21CB0DBBE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{51F5D164-B9A0-4E8F-A21A-6830C95FDC10}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{369C114E-969C-4DE5-80A9-C9C0BA5775BC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92D7276C-5F25-441D-ADF1-2F68F76218C5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EF8B8506-12E7-4987-A0C2-12F5F70E23A0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{07DF2168-EA87-41BC-9D08-4CDD11685A1E}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{11516BCF-4FB6-4E0C-A356-89AD6853398E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{93CA9CE2-2450-4410-B880-0536765017D3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F2157F48-603B-4EF8-AD06-828EE649C1D6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{93E6C3DE-17B6-4EF2-8EEF-C1CBC1F2F5EE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C983A72-3840-40BC-AAB2-28917131B678}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{60C86053-CE28-441F-A544-98A0EA71294D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AAE92A4F-3A33-486E-B0BB-87DF385AF246}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{657A55F8-5257-4C64-B4AF-B24E4A83E626}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10926,7 +10926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A132826F-93EA-4059-9425-CC54D1BBE324}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4EC825-D085-43EF-B93B-FC176A322F52}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12259,18 +12259,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EF7E734D-C15D-484E-9FEA-E88A1AB39D0C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96785156-885C-4B75-B96C-045CFDB1EE37}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CD0684AE-E77D-4908-B8ED-E6A422C25167}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B9879029-30A7-4C47-BD72-82CACB32F154}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5C291B0D-125A-4041-9C3B-80C889EA46A0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5A57F4A7-82CE-47A6-91F4-E920C42D5B23}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9BAEEB1-CF8F-4863-A94E-C99EF2D7EDBA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7332AA98-4BEF-42FD-813B-6CA353ED3238}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9CFC6116-AC92-4425-8811-41868FB3E688}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7550F19D-1522-429C-ADB2-F49B4FABE703}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F606A0C-E528-4DD3-809A-C8D7C2C6F85D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8D5ABCE9-B5D4-49A2-8FC6-8C25E4C34DC8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{718D21BF-3CA6-4142-9359-F74BF18177A0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FF7FB8DB-5994-461A-9324-7C65B727DDF3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{95E684B2-07BC-4E1D-84A1-096A32992C3C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B8F2E14C-0C48-47D0-98DC-4149AE9F1A92}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{75F04F31-A638-4A61-BD81-FFFA6EA76F9E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CEB5A1C6-C601-4729-A169-3860F8B59C46}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B7C03A54-01DE-46F5-AFC9-4AC907EC6109}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C24A3A6D-09A4-4194-A1F7-67AF199F8631}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5FD1AE0C-34F4-40FB-9346-1F783A1192B1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{97CFD3C5-A8A7-46C7-835D-A3159C401D05}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C0B0CBA-FDB6-468D-A0BE-729079997877}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{642B0368-EA12-47F2-9369-6282E00BD7BF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12283,7 +12283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25293E3-E052-4CD0-A3C0-B808607B869E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4394D827-561B-438E-A77E-FA560E791703}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13616,18 +13616,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{739D8E8A-935E-45EA-B6E1-85929AE8A0C8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2A5F163-107C-4CAC-95CF-E09F4B9DAF9C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A9C3E91A-E5BF-4638-BC7E-4EC473347C59}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5FBE574F-AF31-4751-9DE7-CD0C6049E9A3}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{9B7BA6EE-5143-4B28-9372-11CF1A24F186}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{68FA352F-E9FF-45B0-A54C-B7491A0A172C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{04FBA9CB-00D8-40CA-9D3E-312E2426C9BA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{695C8A55-AD1F-49AA-A4C8-E7E252EFB7B0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{18E24680-4290-4F77-9FA6-CF833221412E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7F3B3734-2A51-4156-8B91-A5D184798B72}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10E1F3CA-5A52-4C03-9223-F89F6838737D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8402F378-715E-427A-B55D-6CF9E2C3FF3C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2AF8384D-382A-4601-B237-CCA206E7DD6D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6DFCC924-CC6D-4EE8-AE4A-FD6F5457830D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EF86D5A6-65A9-4B4E-91A5-7630F0B18EE8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3216ED22-0BA7-448E-9537-680EC528E990}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DA7D101A-549C-49DC-A865-EBD51CC948FD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4795C874-B805-4268-A166-ABC2F9886094}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9A170ABA-7744-4F27-B9A7-93F9B07AFC33}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A48F23C7-9F4B-463D-8087-1CA639741F45}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E7AE633-D086-4D6E-8322-D21023EB25B7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CAA44C7F-4880-4C2E-9699-D30EB7FA6A60}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8A4B77D8-5173-434D-97F7-A71FDBBF963B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D77CCC2E-A838-4984-B912-E43361752EC8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13640,7 +13640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D7E01A-0428-4E0F-A0D8-2618235E4369}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F916B8-F7C4-4E96-8FB9-510627190112}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14973,18 +14973,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{335227C9-8771-4C8E-944A-1FF6524C2558}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{101D4561-481B-44D2-8665-6CD06750D74D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E69880C4-BD82-46DC-8C6F-316DC15A8451}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{22F69A5D-5BFA-4DB0-AF63-634C41B18358}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DCC1E3FA-F7DD-4FDC-998C-B791A5B47FA9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DBB0B1BB-84DD-4AF3-96E5-25C9E7CAA830}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9B527B1-158A-496E-9DB4-0E34868D138E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3BF991F7-7791-49E2-AF71-54878C6D064B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1092B89D-C237-4B59-8D2F-0A2818E7AFF8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B84B6252-EE71-4733-B02D-D84951512199}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7EF219D7-BAA3-4146-8A4C-8C94A9C14663}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E1CB30BF-6BE7-4299-894C-E9836AF5536D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0D50C1EA-8676-47E8-8A20-F1B341165BD0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40E25563-0E40-4622-83EB-1DAD6B932EB4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F637CFCF-08D5-4A40-A213-DE6A151BAF6E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9DCE06E9-C97E-46B6-A40C-97B47CC8F8C2}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D25A2C5C-462B-48F2-B897-5F6EF392300F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{49D2F3E0-09D8-4388-AD1B-39126237576F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F609B6C2-6D33-412C-BDB0-CC8106450152}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{50CAA79E-07BA-4891-80AB-5B01BAB030BD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9200539-A4D6-4B15-8B07-67BC4932625A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{323C6744-D1B1-4C0F-841C-63B3B721A447}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B9E0B761-BBE5-4D34-9CD7-9BF44E5F0E27}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F1F074F4-02E7-4FA9-A5E0-BDB2BB5F7D57}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14997,7 +14997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCB4065-32B1-4715-A65B-53A1889B7D8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251AF854-0310-44DA-B5CC-8B36F1F772C0}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16332,18 +16332,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1534315-C6C3-4E0A-9E01-552EA4B5D11F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{577316F0-B1CE-4F8C-B879-86CC0895646D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8CB0474B-1CE3-4AB8-A1E2-67B87DAC08CE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EB8DECC9-2A7E-4FFB-B8F7-D5CC4AA235A6}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F6FE1E54-425A-499A-B53C-AEF4515F3F7B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{82F185BA-0D88-4B5D-966F-78C359E3F077}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BFC0C2B1-38A8-4387-A713-91556E6B434F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C7130CC0-BBE3-4C7F-ADF7-91B7FE917C54}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8B1D52A9-1D79-4BB2-8811-F628CC804D8F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A4B35075-A1E9-4438-BFBE-BA20BC849425}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{16508CE8-A01D-4D61-A650-042AB52E3FC2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F94009E9-051B-4B6C-99C9-35473F6CCB84}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A03F98B0-8300-4693-A41A-9ABDE8054BD4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D80DE8D8-02B9-4C78-9EC9-F30A94039A9C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FD66C6A9-893F-4E74-A124-04FCA79113C1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{779C8CB9-7495-44E0-B124-12623D8A371B}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A517EDAF-908E-4E42-BB08-9B216068FD8C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5096E5C7-A4C8-4DB1-AB2A-E7634B131A04}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{57C7529C-3D5D-445B-BC93-7A2ADBEAD371}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1E5C1430-5220-4933-8A47-B13D93D970F6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4DBB034E-708F-4B41-BDAA-B5D25F651A0D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C1378897-140F-4DF8-B819-8108F3973C91}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3921036A-7AB4-42CF-ABCB-E666F492B21B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1B2BFD6B-5346-4907-8A52-043D1F70AEFC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16356,7 +16356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC876447-6A75-4F6D-8CDA-516642E95E23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DF0927-E792-486A-8131-761E55FBAC62}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17687,18 +17687,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{791F60CB-2666-4C3F-8327-75E4C7CF0384}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D130C35A-1322-43CC-8CF3-50757BF6535F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4A19E679-7CBD-426B-8056-BC26971EAF55}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{03F608B6-B202-483C-9C56-E3FCB01C1DBF}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{308C0505-DE41-43FB-A9E3-7254535B74BF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0F7B047E-51C6-4238-9392-845E52DF0892}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A745FCE-F987-4D29-BA57-C46DBE9F0682}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{10C9C1B5-8E2D-42B7-AAA5-BDF7BEF02312}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E72D84E-0684-4629-B331-9AF9DA6EF873}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9D510B85-F290-45C2-A6E4-F3983993CB17}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{265B5A05-366E-474A-BD5F-96E339196E49}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0ADC5A77-5472-421A-BD08-34049BD659E9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{98C5A5C8-F816-4327-80B8-60E7518C87D1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{71837363-98DF-4BC4-9D40-718972DF2D1A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DCE5F16B-4076-47FD-940D-92EE9B3F739C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{06292275-BBD1-440F-8C30-67BD70E88AC1}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4104454C-62E8-4A2C-B06D-9F673896FECD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{131B2A75-DD65-42F4-BB73-76B59F561A8F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{87687873-5A47-4D38-B11C-2AC4F14D9A08}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A0291A4B-D24B-4C96-90DD-426DEBF36C3F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F77EA4FE-95B9-4185-A44B-44DD8B888D09}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{93333CE7-548D-49E4-ADC8-EC3B0577916B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C4711FE2-5738-4D33-8EF9-CDE45BF62EF1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A88E7FFD-A5E7-432D-B383-B114C5BE3E69}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
